--- a/CM Performance testing.xlsx
+++ b/CM Performance testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -107,6 +107,12 @@
     <t>55 (fail)</t>
   </si>
   <si>
+    <t>Jira ticket CM-18</t>
+  </si>
+  <si>
+    <t>Jira ticket CM-17</t>
+  </si>
+  <si>
     <t>Lighthouse (Google Chrome)</t>
   </si>
   <si>
@@ -117,6 +123,12 @@
   </si>
   <si>
     <t>59 (fail)</t>
+  </si>
+  <si>
+    <t>Jira ticket CM-20</t>
+  </si>
+  <si>
+    <t>Jira ticket CM-19</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,9 @@
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -892,23 +906,27 @@
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -916,8 +934,12 @@
       <c r="B18" s="39"/>
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
+      <c r="E18" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
